--- a/data/trans_bre/P16B02-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 30,15</t>
+          <t>-5,46; 26,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 8,61</t>
+          <t>-23,38; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 20,08</t>
+          <t>-11,68; 20,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 60,93</t>
+          <t>-8,26; 54,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 13,13</t>
+          <t>-28,3; 13,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 43,89</t>
+          <t>-17,74; 43,79</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 11,79</t>
+          <t>-15,79; 11,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 0,77</t>
+          <t>-25,6; 0,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 14,96</t>
+          <t>-16,96; 16,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 16,1</t>
+          <t>-18,44; 15,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 0,74</t>
+          <t>-30,57; -0,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 29,36</t>
+          <t>-23,96; 31,76</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 10,43</t>
+          <t>-24,95; 11,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 8,96</t>
+          <t>-16,68; 9,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 26,64</t>
+          <t>-4,65; 26,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 13,92</t>
+          <t>-29,92; 15,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 12,09</t>
+          <t>-20,2; 12,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 47,76</t>
+          <t>-6,45; 45,96</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 11,2</t>
+          <t>-3,48; 11,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 14,74</t>
+          <t>-3,04; 14,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 12,26</t>
+          <t>-5,65; 12,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 14,63</t>
+          <t>-4,23; 14,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 21,67</t>
+          <t>-3,8; 20,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 19,13</t>
+          <t>-7,9; 20,58</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 20,53</t>
+          <t>-7,25; 19,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 15,47</t>
+          <t>-4,31; 15,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 8,56</t>
+          <t>-9,01; 8,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 31,98</t>
+          <t>-8,17; 29,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 22,16</t>
+          <t>-4,99; 21,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 11,16</t>
+          <t>-10,1; 11,42</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 44,76</t>
+          <t>2,07; 45,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 45,41</t>
+          <t>1,1; 45,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 46,41</t>
+          <t>12,12; 48,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 99,93</t>
+          <t>2,33; 100,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 114,47</t>
+          <t>1,33; 120,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,28; 134,28</t>
+          <t>18,32; 150,62</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 11,16</t>
+          <t>1,73; 10,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,42</t>
+          <t>-1,15; 7,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 13,32</t>
+          <t>4,28; 13,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 15,22</t>
+          <t>2,23; 14,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 10,09</t>
+          <t>-1,46; 10,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 21,13</t>
+          <t>6,16; 21,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B02-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
